--- a/dataMangg.xlsx
+++ b/dataMangg.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>SlNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +28,9 @@
     <t xml:space="preserve">Sagar </t>
   </si>
   <si>
+    <t>Present</t>
+  </si>
+  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
   <si>
     <t>Virat</t>
@@ -319,93 +322,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>10.0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C4" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="2">
         <v>16.0</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
         <v>9.0</v>
       </c>
-      <c r="D3" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dataMangg.xlsx
+++ b/dataMangg.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -25,10 +25,7 @@
     <t>Attendance</t>
   </si>
   <si>
-    <t xml:space="preserve">Sagar </t>
-  </si>
-  <si>
-    <t>Present</t>
+    <t>Sagar</t>
   </si>
   <si>
     <t>Tom</t>
@@ -40,17 +37,32 @@
     <t>Dinesh</t>
   </si>
   <si>
-    <t>Absent</t>
-  </si>
-  <si>
     <t>Virat</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Trucker</t>
+  </si>
+  <si>
+    <t>Hennesy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -58,15 +70,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,15 +88,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,71 +347,173 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>10.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>16.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>9.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>15.0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
         <v>10.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>17.0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
         <v>10.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>16.0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
         <v>9.0</v>
       </c>
-      <c r="C6" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="D9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
